--- a/xlsx/country_comparison/main_all_share.xlsx
+++ b/xlsx/country_comparison/main_all_share.xlsx
@@ -17,31 +17,31 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Support for the GCS</t>
   </si>
   <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing half of global tax with low-income countries*</t>
   </si>
   <si>
     <t xml:space="preserve">A maximum wealth limit of $10 billion
@@ -55,7 +55,7 @@
     <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
   </si>
   <si>
-    <t xml:space="preserve">Universalist</t>
+    <t xml:space="preserve">Universalist*</t>
   </si>
 </sst>
 </file>
@@ -415,22 +415,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040008566919</v>
+        <v>0.75401393517116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757320866764204</v>
+        <v>0.784386617100372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802845995450502</v>
+        <v>0.703183520599251</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712681465751731</v>
+        <v>0.814189189189189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809917713113721</v>
+        <v>0.747002398081535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74106127773703</v>
+        <v>0.540986612873648</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +438,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.690508031455644</v>
+        <v>0.829362029208301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.839351652890108</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.839403543928279</v>
+        <v>0.84037558685446</v>
       </c>
       <c r="E3" t="n">
-        <v>0.844357414213475</v>
+        <v>0.866108786610879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8731859020194</v>
+        <v>0.809815950920245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.833943523324582</v>
+        <v>0.681867535287731</v>
       </c>
     </row>
     <row r="4">
@@ -461,22 +461,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.550489493329875</v>
+        <v>0.52</v>
       </c>
       <c r="C4" t="n">
-        <v>0.522965339675232</v>
+        <v>0.44559585492228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.451861047881886</v>
+        <v>0.603238866396761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.599512592705947</v>
+        <v>0.58955223880597</v>
       </c>
       <c r="F4" t="n">
-        <v>0.608362830388362</v>
+        <v>0.442786069651741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.430033412453768</v>
+        <v>0.520795660036166</v>
       </c>
     </row>
     <row r="5">
@@ -484,22 +484,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.46333575494323</v>
+        <v>0.620628596724214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.621065025534817</v>
+        <v>0.567049808429119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.581434341080065</v>
+        <v>0.620466321243523</v>
       </c>
       <c r="E5" t="n">
-        <v>0.621313531546367</v>
+        <v>0.646596858638743</v>
       </c>
       <c r="F5" t="n">
-        <v>0.648735078584288</v>
+        <v>0.65180102915952</v>
       </c>
       <c r="G5" t="n">
-        <v>0.667407611854691</v>
+        <v>0.471950133570793</v>
       </c>
     </row>
     <row r="6">
@@ -507,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.683819916214763</v>
+        <v>0.815746084089035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819558096525353</v>
+        <v>0.79646017699115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.820875807741039</v>
+        <v>0.820448877805486</v>
       </c>
       <c r="E6" t="n">
-        <v>0.816184257428338</v>
+        <v>0.855233853006682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.853647571464666</v>
+        <v>0.798360655737705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.805326640783647</v>
+        <v>0.688758389261745</v>
       </c>
     </row>
     <row r="7">
@@ -530,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.76841285594711</v>
+        <v>0.826194398682043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.821343908019915</v>
+        <v>0.869090909090909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.891444587543869</v>
+        <v>0.869888475836431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.862510868265041</v>
+        <v>0.891647855530474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8686076878182</v>
+        <v>0.686305732484076</v>
       </c>
       <c r="G7" t="n">
-        <v>0.695129775127236</v>
+        <v>0.7748624629708</v>
       </c>
     </row>
     <row r="8">
@@ -553,22 +553,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.431295387287451</v>
+        <v>0.351101441392439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.415498652646033</v>
+        <v>0.293274531422271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360953103985898</v>
+        <v>0.432409012131716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.482494601642772</v>
+        <v>0.369760479041916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.422785911402492</v>
+        <v>0.294303797468354</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378583106869736</v>
+        <v>0.393192696330438</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/main_all_share.xlsx
+++ b/xlsx/country_comparison/main_all_share.xlsx
@@ -17,6 +17,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Support for the GCS</t>
@@ -415,22 +415,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75401393517116</v>
+        <v>0.542040004729188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.784386617100372</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.703183520599251</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.814189189189189</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.747002398081535</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.540986612873648</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +438,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.829362029208301</v>
+        <v>0.690508031294778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806451612903226</v>
+        <v>0.839351652890108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84037558685446</v>
+        <v>0.839403543928279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.866108786610879</v>
+        <v>0.844357414213475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.809815950920245</v>
+        <v>0.8731859020194</v>
       </c>
       <c r="G3" t="n">
-        <v>0.681867535287731</v>
+        <v>0.833943523324582</v>
       </c>
     </row>
     <row r="4">
@@ -461,22 +461,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.52</v>
+        <v>0.550489493124854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.44559585492228</v>
+        <v>0.522965339675232</v>
       </c>
       <c r="D4" t="n">
-        <v>0.603238866396761</v>
+        <v>0.451861047881886</v>
       </c>
       <c r="E4" t="n">
-        <v>0.58955223880597</v>
+        <v>0.599512592705947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.442786069651741</v>
+        <v>0.608362830388362</v>
       </c>
       <c r="G4" t="n">
-        <v>0.520795660036166</v>
+        <v>0.430033412453768</v>
       </c>
     </row>
     <row r="5">
@@ -484,22 +484,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.620628596724214</v>
+        <v>0.463335748409596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.567049808429119</v>
+        <v>0.621065025534817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.620466321243523</v>
+        <v>0.581434341080065</v>
       </c>
       <c r="E5" t="n">
-        <v>0.646596858638743</v>
+        <v>0.621313531546367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65180102915952</v>
+        <v>0.648735078584288</v>
       </c>
       <c r="G5" t="n">
-        <v>0.471950133570793</v>
+        <v>0.667407611854691</v>
       </c>
     </row>
     <row r="6">
@@ -507,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.815746084089035</v>
+        <v>0.683819909691181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.79646017699115</v>
+        <v>0.819558096525353</v>
       </c>
       <c r="D6" t="n">
-        <v>0.820448877805486</v>
+        <v>0.820875807741039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.855233853006682</v>
+        <v>0.816184257428338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.798360655737705</v>
+        <v>0.853647571464666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.688758389261745</v>
+        <v>0.805326640783647</v>
       </c>
     </row>
     <row r="7">
@@ -530,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.826194398682043</v>
+        <v>0.598187005678366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.869090909090909</v>
+        <v>0.636739028674537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.869888475836431</v>
+        <v>0.627588384954585</v>
       </c>
       <c r="E7" t="n">
-        <v>0.891647855530474</v>
+        <v>0.676807601959896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.686305732484076</v>
+        <v>0.691059073949057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7748624629708</v>
+        <v>0.560844998477962</v>
       </c>
     </row>
     <row r="8">
@@ -553,22 +553,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.351101441392439</v>
+        <v>0.431295381080226</v>
       </c>
       <c r="C8" t="n">
-        <v>0.293274531422271</v>
+        <v>0.415498652646033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432409012131716</v>
+        <v>0.360953103985898</v>
       </c>
       <c r="E8" t="n">
-        <v>0.369760479041916</v>
+        <v>0.482494601642772</v>
       </c>
       <c r="F8" t="n">
-        <v>0.294303797468354</v>
+        <v>0.422785911402492</v>
       </c>
       <c r="G8" t="n">
-        <v>0.393192696330438</v>
+        <v>0.378583106869736</v>
       </c>
     </row>
   </sheetData>
